--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/player.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D89D1-ABB7-462C-8D85-AACB5F5C757A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88489CC-5944-4BAC-818C-50101389A9A3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,22 +427,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,19 +454,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"证券买入,证券卖出,基金申购,基金赎回"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/player.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88489CC-5944-4BAC-818C-50101389A9A3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1014D141-1FD0-49F7-A9B2-FD7B6C779A80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,23 +423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,12 +450,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
